--- a/ML10data.xlsx
+++ b/ML10data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/williamshue/Downloads/naive-bayes-classifier-master/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/williamshue/Downloads/naive-bayes-classifier/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CDA0E77-43C4-804D-AB86-9140574DD221}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE13283-ACDB-0A42-9039-B8661D7EA650}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{EFA67FC4-7DAC-4450-8E12-5B45F1787297}"/>
+    <workbookView xWindow="2240" yWindow="460" windowWidth="23260" windowHeight="17540" xr2:uid="{EFA67FC4-7DAC-4450-8E12-5B45F1787297}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="28">
   <si>
     <t>sum</t>
   </si>
@@ -125,7 +125,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,6 +138,12 @@
       <color rgb="FF24292E"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="11">
@@ -345,11 +351,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -462,11 +465,88 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -550,7 +630,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Gabriela Bubalo" refreshedDate="43688.016628356483" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="15" xr:uid="{813888D1-F882-42A3-BB23-4F3A5521C082}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="E2:K17" sheet=".xlsx]Sheet1" r:id="rId2"/>
+    <worksheetSource ref="E2:K17" sheet=".xlsx].xlsx]Sheet1" r:id="rId2"/>
   </cacheSource>
   <cacheFields count="7">
     <cacheField name="Data set" numFmtId="0">
@@ -744,7 +824,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{443DCEDB-56E2-42DC-8D3F-86676D902500}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{443DCEDB-56E2-42DC-8D3F-86676D902500}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A2:F16" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
@@ -1174,10 +1254,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19823C49-589F-438C-8CC7-305081346B3C}">
-  <dimension ref="E2:N17"/>
+  <dimension ref="E2:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1189,455 +1269,740 @@
   </cols>
   <sheetData>
     <row r="2" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="J2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="K2" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="35"/>
-      <c r="M2" s="40" t="s">
+      <c r="L2" s="34"/>
+      <c r="M2" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="41"/>
+      <c r="N2" s="40"/>
     </row>
     <row r="3" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="E3" s="30">
+      <c r="E3" s="29">
         <v>1</v>
       </c>
-      <c r="F3" s="31">
+      <c r="F3" s="30">
         <v>6.5750000000000002</v>
       </c>
-      <c r="G3" s="32">
+      <c r="G3" s="31">
         <v>1</v>
       </c>
-      <c r="H3" s="33">
+      <c r="H3" s="32">
         <v>296</v>
       </c>
-      <c r="I3" s="33">
+      <c r="I3" s="32">
         <v>15.3</v>
       </c>
-      <c r="J3" s="33">
+      <c r="J3" s="32">
         <v>24</v>
       </c>
-      <c r="K3" s="34" t="s">
+      <c r="K3" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="28" t="s">
+      <c r="M3" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="29" t="s">
+      <c r="N3" s="28" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="E4" s="30">
+      <c r="E4" s="29">
         <v>2</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="30">
         <v>6.4210000000000003</v>
       </c>
-      <c r="G4" s="32">
+      <c r="G4" s="31">
         <v>2</v>
       </c>
-      <c r="H4" s="33">
+      <c r="H4" s="32">
         <v>242</v>
       </c>
-      <c r="I4" s="33">
+      <c r="I4" s="32">
         <v>17.8</v>
       </c>
-      <c r="J4" s="33">
+      <c r="J4" s="32">
         <v>21.6</v>
       </c>
-      <c r="K4" s="34" t="s">
+      <c r="K4" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="28" t="s">
+      <c r="M4" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="29" t="s">
+      <c r="N4" s="28" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="E5" s="30">
+      <c r="E5" s="29">
         <v>3</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="30">
         <v>7.1849999999999996</v>
       </c>
-      <c r="G5" s="32">
+      <c r="G5" s="31">
         <v>2</v>
       </c>
-      <c r="H5" s="33">
+      <c r="H5" s="32">
         <v>242</v>
       </c>
-      <c r="I5" s="33">
+      <c r="I5" s="32">
         <v>17.8</v>
       </c>
-      <c r="J5" s="33">
+      <c r="J5" s="32">
         <v>34.700000000000003</v>
       </c>
-      <c r="K5" s="34" t="s">
+      <c r="K5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="28" t="s">
+      <c r="M5" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="29" t="s">
+      <c r="N5" s="28" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="E6" s="30">
+      <c r="E6" s="29">
         <v>4</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="30">
         <v>6.9980000000000002</v>
       </c>
-      <c r="G6" s="32">
+      <c r="G6" s="31">
         <v>3</v>
       </c>
-      <c r="H6" s="33">
+      <c r="H6" s="32">
         <v>222</v>
       </c>
-      <c r="I6" s="33">
+      <c r="I6" s="32">
         <v>18.7</v>
       </c>
-      <c r="J6" s="33">
+      <c r="J6" s="32">
         <v>33.4</v>
       </c>
-      <c r="K6" s="34" t="s">
+      <c r="K6" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="28" t="s">
+      <c r="M6" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="29" t="s">
+      <c r="N6" s="28" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="E7" s="18">
+      <c r="E7" s="17">
         <v>5</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>7.1470000000000002</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <v>3</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>222</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>18.7</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <v>36.200000000000003</v>
       </c>
-      <c r="K7" s="25" t="s">
+      <c r="K7" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="M7" s="26" t="s">
+      <c r="M7" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="27" t="s">
+      <c r="N7" s="26" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="E8" s="30">
+      <c r="E8" s="29">
         <v>6</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="30">
         <v>6.43</v>
       </c>
-      <c r="G8" s="32">
+      <c r="G8" s="31">
         <v>3</v>
       </c>
-      <c r="H8" s="33">
+      <c r="H8" s="32">
         <v>222</v>
       </c>
-      <c r="I8" s="33">
+      <c r="I8" s="32">
         <v>18.7</v>
       </c>
-      <c r="J8" s="33">
+      <c r="J8" s="32">
         <v>28.7</v>
       </c>
-      <c r="K8" s="34" t="s">
+      <c r="K8" s="33" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="E9" s="30">
+      <c r="E9" s="29">
         <v>7</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="30">
         <v>6.0119999999999996</v>
       </c>
-      <c r="G9" s="32">
+      <c r="G9" s="31">
         <v>5</v>
       </c>
-      <c r="H9" s="33">
+      <c r="H9" s="32">
         <v>311</v>
       </c>
-      <c r="I9" s="33">
+      <c r="I9" s="32">
         <v>15.2</v>
       </c>
-      <c r="J9" s="33">
+      <c r="J9" s="32">
         <v>22.9</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="E10" s="30">
+      <c r="E10" s="29">
         <v>8</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="30">
         <v>5.6310000000000002</v>
       </c>
-      <c r="G10" s="32">
+      <c r="G10" s="31">
         <v>5</v>
       </c>
-      <c r="H10" s="33">
+      <c r="H10" s="32">
         <v>311</v>
       </c>
-      <c r="I10" s="33">
+      <c r="I10" s="32">
         <v>15.2</v>
       </c>
-      <c r="J10" s="33">
+      <c r="J10" s="32">
         <v>16.5</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="E11" s="30">
+      <c r="E11" s="29">
         <v>9</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="30">
         <v>6.1719999999999997</v>
       </c>
-      <c r="G11" s="32">
+      <c r="G11" s="31">
         <v>5</v>
       </c>
-      <c r="H11" s="33">
+      <c r="H11" s="32">
         <v>311</v>
       </c>
-      <c r="I11" s="33">
+      <c r="I11" s="32">
         <v>15.2</v>
       </c>
-      <c r="J11" s="33">
+      <c r="J11" s="32">
         <v>27.1</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="E12" s="19">
+      <c r="E12" s="18">
         <v>10</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>6.0039999999999996</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <v>5</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="6">
         <v>311</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="6">
         <v>15.2</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="6">
         <v>18.899999999999999</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K12" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="42">
+        <v>56</v>
+      </c>
+      <c r="F13" s="41">
+        <v>7.2489999999999997</v>
+      </c>
+      <c r="G13" s="41">
+        <v>5</v>
+      </c>
+      <c r="H13" s="41">
+        <v>226</v>
+      </c>
+      <c r="I13" s="41">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="J13" s="41">
+        <v>35.4</v>
+      </c>
+      <c r="K13" s="46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E14" s="42">
+        <v>99</v>
+      </c>
+      <c r="F14" s="41">
+        <v>7.82</v>
+      </c>
+      <c r="G14" s="41">
+        <v>2</v>
+      </c>
+      <c r="H14" s="41">
+        <v>276</v>
+      </c>
+      <c r="I14" s="41">
+        <v>18</v>
+      </c>
+      <c r="J14" s="41">
+        <v>43.8</v>
+      </c>
+      <c r="K14" s="46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E15" s="42">
+        <v>145</v>
+      </c>
+      <c r="F15" s="41">
+        <v>4.9029999999999996</v>
+      </c>
+      <c r="G15" s="41">
+        <v>5</v>
+      </c>
+      <c r="H15" s="41">
+        <v>403</v>
+      </c>
+      <c r="I15" s="41">
+        <v>14.7</v>
+      </c>
+      <c r="J15" s="41">
+        <v>11.8</v>
+      </c>
+      <c r="K15" s="44" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E16" s="42">
+        <v>187</v>
+      </c>
+      <c r="F16" s="41">
+        <v>7.8310000000000004</v>
+      </c>
+      <c r="G16" s="41">
+        <v>3</v>
+      </c>
+      <c r="H16" s="41">
+        <v>193</v>
+      </c>
+      <c r="I16" s="41">
+        <v>17.8</v>
+      </c>
+      <c r="J16" s="41">
+        <v>50</v>
+      </c>
+      <c r="K16" s="46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E17" s="42">
+        <v>372</v>
+      </c>
+      <c r="F17" s="41">
+        <v>6.2160000000000002</v>
+      </c>
+      <c r="G17" s="41">
+        <v>24</v>
+      </c>
+      <c r="H17" s="41">
+        <v>666</v>
+      </c>
+      <c r="I17" s="41">
+        <v>20.2</v>
+      </c>
+      <c r="J17" s="41">
+        <v>50</v>
+      </c>
+      <c r="K17" s="46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E18" s="42">
+        <v>369</v>
+      </c>
+      <c r="F18" s="41">
+        <v>4.97</v>
+      </c>
+      <c r="G18" s="41">
+        <v>24</v>
+      </c>
+      <c r="H18" s="41">
+        <v>666</v>
+      </c>
+      <c r="I18" s="41">
+        <v>20.2</v>
+      </c>
+      <c r="J18" s="41">
+        <v>50</v>
+      </c>
+      <c r="K18" s="47" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E19" s="42">
+        <v>346</v>
+      </c>
+      <c r="F19" s="41">
+        <v>6.0140000000000002</v>
+      </c>
+      <c r="G19" s="41">
+        <v>3</v>
+      </c>
+      <c r="H19" s="41">
+        <v>352</v>
+      </c>
+      <c r="I19" s="41">
+        <v>18.8</v>
+      </c>
+      <c r="J19" s="41">
+        <v>17.5</v>
+      </c>
+      <c r="K19" s="45" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E20" s="42">
+        <v>306</v>
+      </c>
+      <c r="F20" s="41">
+        <v>6.6159999999999997</v>
+      </c>
+      <c r="G20" s="41">
+        <v>7</v>
+      </c>
+      <c r="H20" s="41">
+        <v>222</v>
+      </c>
+      <c r="I20" s="41">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="J20" s="41">
+        <v>28.4</v>
+      </c>
+      <c r="K20" s="47" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E21" s="42">
+        <v>415</v>
+      </c>
+      <c r="F21" s="41">
+        <v>4.5190000000000001</v>
+      </c>
+      <c r="G21" s="41">
+        <v>24</v>
+      </c>
+      <c r="H21" s="41">
+        <v>666</v>
+      </c>
+      <c r="I21" s="41">
+        <v>20.2</v>
+      </c>
+      <c r="J21" s="41">
+        <v>7</v>
+      </c>
+      <c r="K21" s="47" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E22" s="42">
+        <v>506</v>
+      </c>
+      <c r="F22" s="41">
+        <v>6.03</v>
+      </c>
+      <c r="G22" s="41">
+        <v>1</v>
+      </c>
+      <c r="H22" s="41">
+        <v>273</v>
+      </c>
+      <c r="I22" s="41">
+        <v>11.9</v>
+      </c>
+      <c r="J22" s="41">
+        <v>11.9</v>
+      </c>
+      <c r="K22" s="45" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E23" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="F13" s="16">
-        <f>SUM(F3:F12)</f>
-        <v>64.575000000000003</v>
-      </c>
-      <c r="G13" s="16">
-        <f t="shared" ref="G13:J13" si="0">SUM(G3:G12)</f>
-        <v>34</v>
-      </c>
-      <c r="H13" s="16">
+      <c r="F23" s="15">
+        <f>SUM(F3:F22)</f>
+        <v>126.74300000000001</v>
+      </c>
+      <c r="G23" s="15">
+        <f>SUM(G3:G22)</f>
+        <v>132</v>
+      </c>
+      <c r="H23" s="15">
+        <f>SUM(H3:H22)</f>
+        <v>6633</v>
+      </c>
+      <c r="I23" s="15">
+        <f>SUM(I3:I22)</f>
+        <v>345.89999999999992</v>
+      </c>
+      <c r="J23" s="16">
+        <f>SUM(J3:J22)</f>
+        <v>569.79999999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E24" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="22">
+        <f>MAX(F3:F22)</f>
+        <v>7.8310000000000004</v>
+      </c>
+      <c r="G24" s="22">
+        <f>MAX(G3:G22)</f>
+        <v>24</v>
+      </c>
+      <c r="H24" s="22">
+        <f>MAX(H3:H22)</f>
+        <v>666</v>
+      </c>
+      <c r="I24" s="22">
+        <f>MAX(I3:I22)</f>
+        <v>20.2</v>
+      </c>
+      <c r="J24" s="23">
+        <f>MAX(J3:J22)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E25" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" s="8">
+        <f>MIN(F3:F22)</f>
+        <v>4.5190000000000001</v>
+      </c>
+      <c r="G25" s="8">
+        <f>MIN(G3:G22)</f>
+        <v>1</v>
+      </c>
+      <c r="H25" s="8">
+        <f>MIN(H3:H22)</f>
+        <v>193</v>
+      </c>
+      <c r="I25" s="8">
+        <f>MIN(I3:I22)</f>
+        <v>11.9</v>
+      </c>
+      <c r="J25" s="9">
+        <f>MIN(J3:J22)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E26" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="10">
+        <f>F24-F25</f>
+        <v>3.3120000000000003</v>
+      </c>
+      <c r="G26" s="10">
+        <f t="shared" ref="G26:J26" si="0">G24-G25</f>
+        <v>23</v>
+      </c>
+      <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>2690</v>
-      </c>
-      <c r="I13" s="16">
+        <v>473</v>
+      </c>
+      <c r="I26" s="10">
         <f t="shared" si="0"/>
-        <v>167.79999999999998</v>
-      </c>
-      <c r="J13" s="17">
+        <v>8.2999999999999989</v>
+      </c>
+      <c r="J26" s="11">
         <f t="shared" si="0"/>
-        <v>264</v>
-      </c>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="E14" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="23">
-        <f>MAX(F3:F12)</f>
-        <v>7.1849999999999996</v>
-      </c>
-      <c r="G14" s="23">
-        <f t="shared" ref="G14:J14" si="1">MAX(G3:G12)</f>
-        <v>5</v>
-      </c>
-      <c r="H14" s="23">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E27" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="12">
+        <f>F23/10</f>
+        <v>12.674300000000001</v>
+      </c>
+      <c r="G27" s="12">
+        <f t="shared" ref="G27:J27" si="1">G23/10</f>
+        <v>13.2</v>
+      </c>
+      <c r="H27" s="12">
         <f t="shared" si="1"/>
-        <v>311</v>
-      </c>
-      <c r="I14" s="23">
+        <v>663.3</v>
+      </c>
+      <c r="I27" s="12">
         <f t="shared" si="1"/>
-        <v>18.7</v>
-      </c>
-      <c r="J14" s="24">
+        <v>34.589999999999989</v>
+      </c>
+      <c r="J27" s="13">
         <f t="shared" si="1"/>
-        <v>36.200000000000003</v>
-      </c>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="E15" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" s="9">
-        <f>MIN(F3:F12)</f>
-        <v>5.6310000000000002</v>
-      </c>
-      <c r="G15" s="9">
-        <f t="shared" ref="G15:J15" si="2">MIN(G3:G12)</f>
-        <v>1</v>
-      </c>
-      <c r="H15" s="9">
-        <f t="shared" si="2"/>
-        <v>222</v>
-      </c>
-      <c r="I15" s="9">
-        <f t="shared" si="2"/>
-        <v>15.2</v>
-      </c>
-      <c r="J15" s="10">
-        <f t="shared" si="2"/>
-        <v>16.5</v>
-      </c>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="E16" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="11">
-        <f>F14-F15</f>
-        <v>1.5539999999999994</v>
-      </c>
-      <c r="G16" s="11">
-        <f t="shared" ref="G16:J16" si="3">G14-G15</f>
-        <v>4</v>
-      </c>
-      <c r="H16" s="11">
-        <f t="shared" si="3"/>
-        <v>89</v>
-      </c>
-      <c r="I16" s="11">
-        <f t="shared" si="3"/>
-        <v>3.5</v>
-      </c>
-      <c r="J16" s="12">
-        <f t="shared" si="3"/>
-        <v>19.700000000000003</v>
-      </c>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E17" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="13">
-        <f>F13/10</f>
-        <v>6.4575000000000005</v>
-      </c>
-      <c r="G17" s="13">
-        <f t="shared" ref="G17:J17" si="4">G13/10</f>
-        <v>3.4</v>
-      </c>
-      <c r="H17" s="13">
-        <f t="shared" si="4"/>
-        <v>269</v>
-      </c>
-      <c r="I17" s="13">
-        <f t="shared" si="4"/>
-        <v>16.779999999999998</v>
-      </c>
-      <c r="J17" s="14">
-        <f t="shared" si="4"/>
-        <v>26.4</v>
-      </c>
-      <c r="K17" s="1"/>
+        <v>56.98</v>
+      </c>
+    </row>
+    <row r="31" spans="5:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K31" s="43"/>
+    </row>
+    <row r="33" spans="11:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K33" s="43"/>
+    </row>
+    <row r="35" spans="11:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K35" s="43"/>
+    </row>
+    <row r="37" spans="11:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K37" s="43"/>
+    </row>
+    <row r="39" spans="11:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K39" s="43"/>
+    </row>
+    <row r="41" spans="11:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K41" s="43"/>
+    </row>
+    <row r="43" spans="11:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K43" s="43"/>
+    </row>
+    <row r="45" spans="11:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K45" s="43"/>
+    </row>
+    <row r="47" spans="11:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K47" s="43"/>
+    </row>
+    <row r="49" spans="11:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K49" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="M2:N2"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F12">
-    <cfRule type="cellIs" dxfId="5" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="15" operator="lessThan">
       <formula>6.408</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="20" operator="lessThan">
       <formula>6.408</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="15" operator="lessThan">
+    <cfRule type="cellIs" priority="21" operator="lessThan">
       <formula>16.14375</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G12">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H12">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="greaterThan">
       <formula>266.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I12">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
       <formula>16.95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J12">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThan">
+      <formula>26.35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThan">
+      <formula>6.408</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13:F22">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
+      <formula>6.408</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13:G22">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThanOrEqual">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13:H22">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThanOrEqual">
+      <formula>266.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I22">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThanOrEqual">
+      <formula>16.95</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13:J22">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
       <formula>26.35</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1665,7 +2030,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="36" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
@@ -1685,282 +2050,282 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="36">
+      <c r="B3" s="35">
         <v>47.4</v>
       </c>
-      <c r="C3" s="36">
+      <c r="C3" s="35">
         <v>85.402500000000003</v>
       </c>
-      <c r="D3" s="36">
+      <c r="D3" s="35">
         <v>3581</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="35">
         <v>221.97999999999996</v>
       </c>
-      <c r="F3" s="36">
+      <c r="F3" s="35">
         <v>362.8</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="36">
+      <c r="B4" s="35">
         <v>4</v>
       </c>
-      <c r="C4" s="36">
+      <c r="C4" s="35">
         <v>1.5539999999999994</v>
       </c>
-      <c r="D4" s="36">
+      <c r="D4" s="35">
         <v>89</v>
       </c>
-      <c r="E4" s="36">
+      <c r="E4" s="35">
         <v>3.5</v>
       </c>
-      <c r="F4" s="36">
+      <c r="F4" s="35">
         <v>19.700000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="35">
         <v>5</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="35">
         <v>7.1849999999999996</v>
       </c>
-      <c r="D5" s="36">
+      <c r="D5" s="35">
         <v>311</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="35">
         <v>18.7</v>
       </c>
-      <c r="F5" s="36">
+      <c r="F5" s="35">
         <v>36.200000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="36">
+      <c r="B6" s="35">
         <v>3.4</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="35">
         <v>6.4575000000000005</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="35">
         <v>269</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="35">
         <v>16.779999999999998</v>
       </c>
-      <c r="F6" s="36">
+      <c r="F6" s="35">
         <v>26.4</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="35">
         <v>1</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="35">
         <v>5.6310000000000002</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="35">
         <v>222</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="35">
         <v>15.2</v>
       </c>
-      <c r="F7" s="36">
+      <c r="F7" s="35">
         <v>16.5</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="35">
         <v>34</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="35">
         <v>64.575000000000003</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="35">
         <v>2690</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="35">
         <v>167.79999999999998</v>
       </c>
-      <c r="F8" s="36">
+      <c r="F8" s="35">
         <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="36">
+      <c r="B9" s="35">
         <v>23</v>
       </c>
-      <c r="C9" s="36">
+      <c r="C9" s="35">
         <v>30.966000000000001</v>
       </c>
-      <c r="D9" s="36">
+      <c r="D9" s="35">
         <v>1466</v>
       </c>
-      <c r="E9" s="36">
+      <c r="E9" s="35">
         <v>79.5</v>
       </c>
-      <c r="F9" s="36">
+      <c r="F9" s="35">
         <v>121.6</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="39">
+      <c r="A10" s="38">
         <v>5</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="35">
         <v>3</v>
       </c>
-      <c r="C10" s="36">
+      <c r="C10" s="35">
         <v>7.1470000000000002</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D10" s="35">
         <v>222</v>
       </c>
-      <c r="E10" s="36">
+      <c r="E10" s="35">
         <v>18.7</v>
       </c>
-      <c r="F10" s="36">
+      <c r="F10" s="35">
         <v>36.200000000000003</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="39">
+      <c r="A11" s="38">
         <v>7</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="35">
         <v>5</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="35">
         <v>6.0119999999999996</v>
       </c>
-      <c r="D11" s="36">
+      <c r="D11" s="35">
         <v>311</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="35">
         <v>15.2</v>
       </c>
-      <c r="F11" s="36">
+      <c r="F11" s="35">
         <v>22.9</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="39">
+      <c r="A12" s="38">
         <v>8</v>
       </c>
-      <c r="B12" s="36">
+      <c r="B12" s="35">
         <v>5</v>
       </c>
-      <c r="C12" s="36">
+      <c r="C12" s="35">
         <v>5.6310000000000002</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D12" s="35">
         <v>311</v>
       </c>
-      <c r="E12" s="36">
+      <c r="E12" s="35">
         <v>15.2</v>
       </c>
-      <c r="F12" s="36">
+      <c r="F12" s="35">
         <v>16.5</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="39">
+      <c r="A13" s="38">
         <v>9</v>
       </c>
-      <c r="B13" s="36">
+      <c r="B13" s="35">
         <v>5</v>
       </c>
-      <c r="C13" s="36">
+      <c r="C13" s="35">
         <v>6.1719999999999997</v>
       </c>
-      <c r="D13" s="36">
+      <c r="D13" s="35">
         <v>311</v>
       </c>
-      <c r="E13" s="36">
+      <c r="E13" s="35">
         <v>15.2</v>
       </c>
-      <c r="F13" s="36">
+      <c r="F13" s="35">
         <v>27.1</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="39">
+      <c r="A14" s="38">
         <v>10</v>
       </c>
-      <c r="B14" s="36">
+      <c r="B14" s="35">
         <v>5</v>
       </c>
-      <c r="C14" s="36">
+      <c r="C14" s="35">
         <v>6.0039999999999996</v>
       </c>
-      <c r="D14" s="36">
+      <c r="D14" s="35">
         <v>311</v>
       </c>
-      <c r="E14" s="36">
+      <c r="E14" s="35">
         <v>15.2</v>
       </c>
-      <c r="F14" s="36">
+      <c r="F14" s="35">
         <v>18.899999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="36">
+      <c r="B15" s="35">
         <v>11</v>
       </c>
-      <c r="C15" s="36">
+      <c r="C15" s="35">
         <v>33.609000000000002</v>
       </c>
-      <c r="D15" s="36">
+      <c r="D15" s="35">
         <v>1224</v>
       </c>
-      <c r="E15" s="36">
+      <c r="E15" s="35">
         <v>88.300000000000011</v>
       </c>
-      <c r="F15" s="36">
+      <c r="F15" s="35">
         <v>142.4</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="36">
+      <c r="B16" s="35">
         <v>81.400000000000006</v>
       </c>
-      <c r="C16" s="36">
+      <c r="C16" s="35">
         <v>149.97750000000002</v>
       </c>
-      <c r="D16" s="36">
+      <c r="D16" s="35">
         <v>6271</v>
       </c>
-      <c r="E16" s="36">
+      <c r="E16" s="35">
         <v>389.78</v>
       </c>
-      <c r="F16" s="36">
+      <c r="F16" s="35">
         <v>626.79999999999995</v>
       </c>
     </row>
@@ -1970,12 +2335,78 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Teachers xmlns="6ba40e64-18b4-43ba-a06e-2fa7ec982051">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Teachers>
+    <Students xmlns="6ba40e64-18b4-43ba-a06e-2fa7ec982051">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Students>
+    <LMS_Mappings xmlns="6ba40e64-18b4-43ba-a06e-2fa7ec982051" xsi:nil="true"/>
+    <Invited_Leaders xmlns="6ba40e64-18b4-43ba-a06e-2fa7ec982051" xsi:nil="true"/>
+    <Invited_Members xmlns="6ba40e64-18b4-43ba-a06e-2fa7ec982051" xsi:nil="true"/>
+    <Math_Settings xmlns="6ba40e64-18b4-43ba-a06e-2fa7ec982051" xsi:nil="true"/>
+    <Has_Leaders_Only_SectionGroup xmlns="6ba40e64-18b4-43ba-a06e-2fa7ec982051" xsi:nil="true"/>
+    <Owner xmlns="6ba40e64-18b4-43ba-a06e-2fa7ec982051">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <Student_Groups xmlns="6ba40e64-18b4-43ba-a06e-2fa7ec982051">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Student_Groups>
+    <AppVersion xmlns="6ba40e64-18b4-43ba-a06e-2fa7ec982051" xsi:nil="true"/>
+    <TeamsChannelId xmlns="6ba40e64-18b4-43ba-a06e-2fa7ec982051" xsi:nil="true"/>
+    <DefaultSectionNames xmlns="6ba40e64-18b4-43ba-a06e-2fa7ec982051" xsi:nil="true"/>
+    <Templates xmlns="6ba40e64-18b4-43ba-a06e-2fa7ec982051" xsi:nil="true"/>
+    <Has_Teacher_Only_SectionGroup xmlns="6ba40e64-18b4-43ba-a06e-2fa7ec982051" xsi:nil="true"/>
+    <Members xmlns="6ba40e64-18b4-43ba-a06e-2fa7ec982051">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Members>
+    <NotebookType xmlns="6ba40e64-18b4-43ba-a06e-2fa7ec982051" xsi:nil="true"/>
+    <Invited_Teachers xmlns="6ba40e64-18b4-43ba-a06e-2fa7ec982051" xsi:nil="true"/>
+    <Member_Groups xmlns="6ba40e64-18b4-43ba-a06e-2fa7ec982051">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Member_Groups>
+    <FolderType xmlns="6ba40e64-18b4-43ba-a06e-2fa7ec982051" xsi:nil="true"/>
+    <Leaders xmlns="6ba40e64-18b4-43ba-a06e-2fa7ec982051">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Leaders>
+    <Self_Registration_Enabled xmlns="6ba40e64-18b4-43ba-a06e-2fa7ec982051" xsi:nil="true"/>
+    <CultureName xmlns="6ba40e64-18b4-43ba-a06e-2fa7ec982051" xsi:nil="true"/>
+    <Distribution_Groups xmlns="6ba40e64-18b4-43ba-a06e-2fa7ec982051" xsi:nil="true"/>
+    <Invited_Students xmlns="6ba40e64-18b4-43ba-a06e-2fa7ec982051" xsi:nil="true"/>
+    <IsNotebookLocked xmlns="6ba40e64-18b4-43ba-a06e-2fa7ec982051" xsi:nil="true"/>
+    <Is_Collaboration_Space_Locked xmlns="6ba40e64-18b4-43ba-a06e-2fa7ec982051" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2466,84 +2897,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Teachers xmlns="6ba40e64-18b4-43ba-a06e-2fa7ec982051">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Teachers>
-    <Students xmlns="6ba40e64-18b4-43ba-a06e-2fa7ec982051">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Students>
-    <LMS_Mappings xmlns="6ba40e64-18b4-43ba-a06e-2fa7ec982051" xsi:nil="true"/>
-    <Invited_Leaders xmlns="6ba40e64-18b4-43ba-a06e-2fa7ec982051" xsi:nil="true"/>
-    <Invited_Members xmlns="6ba40e64-18b4-43ba-a06e-2fa7ec982051" xsi:nil="true"/>
-    <Math_Settings xmlns="6ba40e64-18b4-43ba-a06e-2fa7ec982051" xsi:nil="true"/>
-    <Has_Leaders_Only_SectionGroup xmlns="6ba40e64-18b4-43ba-a06e-2fa7ec982051" xsi:nil="true"/>
-    <Owner xmlns="6ba40e64-18b4-43ba-a06e-2fa7ec982051">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <Student_Groups xmlns="6ba40e64-18b4-43ba-a06e-2fa7ec982051">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Student_Groups>
-    <AppVersion xmlns="6ba40e64-18b4-43ba-a06e-2fa7ec982051" xsi:nil="true"/>
-    <TeamsChannelId xmlns="6ba40e64-18b4-43ba-a06e-2fa7ec982051" xsi:nil="true"/>
-    <DefaultSectionNames xmlns="6ba40e64-18b4-43ba-a06e-2fa7ec982051" xsi:nil="true"/>
-    <Templates xmlns="6ba40e64-18b4-43ba-a06e-2fa7ec982051" xsi:nil="true"/>
-    <Has_Teacher_Only_SectionGroup xmlns="6ba40e64-18b4-43ba-a06e-2fa7ec982051" xsi:nil="true"/>
-    <Members xmlns="6ba40e64-18b4-43ba-a06e-2fa7ec982051">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Members>
-    <NotebookType xmlns="6ba40e64-18b4-43ba-a06e-2fa7ec982051" xsi:nil="true"/>
-    <Invited_Teachers xmlns="6ba40e64-18b4-43ba-a06e-2fa7ec982051" xsi:nil="true"/>
-    <Member_Groups xmlns="6ba40e64-18b4-43ba-a06e-2fa7ec982051">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Member_Groups>
-    <FolderType xmlns="6ba40e64-18b4-43ba-a06e-2fa7ec982051" xsi:nil="true"/>
-    <Leaders xmlns="6ba40e64-18b4-43ba-a06e-2fa7ec982051">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Leaders>
-    <Self_Registration_Enabled xmlns="6ba40e64-18b4-43ba-a06e-2fa7ec982051" xsi:nil="true"/>
-    <CultureName xmlns="6ba40e64-18b4-43ba-a06e-2fa7ec982051" xsi:nil="true"/>
-    <Distribution_Groups xmlns="6ba40e64-18b4-43ba-a06e-2fa7ec982051" xsi:nil="true"/>
-    <Invited_Students xmlns="6ba40e64-18b4-43ba-a06e-2fa7ec982051" xsi:nil="true"/>
-    <IsNotebookLocked xmlns="6ba40e64-18b4-43ba-a06e-2fa7ec982051" xsi:nil="true"/>
-    <Is_Collaboration_Space_Locked xmlns="6ba40e64-18b4-43ba-a06e-2fa7ec982051" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07D802BA-AD90-426F-A8AC-1C446B21EC14}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B51F7DCA-E922-4F36-AA11-D12555A0B70A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="90fee22d-5877-4047-a14b-e4359c2b6bcb"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6ba40e64-18b4-43ba-a06e-2fa7ec982051"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2568,18 +2942,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B51F7DCA-E922-4F36-AA11-D12555A0B70A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07D802BA-AD90-426F-A8AC-1C446B21EC14}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="90fee22d-5877-4047-a14b-e4359c2b6bcb"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6ba40e64-18b4-43ba-a06e-2fa7ec982051"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/ML10data.xlsx
+++ b/ML10data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/williamshue/Downloads/naive-bayes-classifier/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE13283-ACDB-0A42-9039-B8661D7EA650}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA39CD3-4D56-1940-BFFB-0FC0CF36F58F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2240" yWindow="460" windowWidth="23260" windowHeight="17540" xr2:uid="{EFA67FC4-7DAC-4450-8E12-5B45F1787297}"/>
   </bookViews>
@@ -1257,7 +1257,7 @@
   <dimension ref="E2:N49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
